--- a/biology/Zoologie/Elasmodactylus/Elasmodactylus.xlsx
+++ b/biology/Zoologie/Elasmodactylus/Elasmodactylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elasmodactylus est un genre de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elasmodactylus est un genre de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le centre de l'Afrique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le centre de l'Afrique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (23 septembre 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (23 septembre 2012) :
 Elasmodactylus tetensis (Loveridge, 1952)
 Elasmodactylus tuberculosus Boulenger, 1895</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été créé par George Albert Boulenger[3], il a ensuite été considéré comme synonyme de Pachydactylus. Après les études menées par Bauer &amp; Lamb[4], qui ont conclu au caractère distinct de ces espèces, ce genre a été rétabli.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été créé par George Albert Boulenger, il a ensuite été considéré comme synonyme de Pachydactylus. Après les études menées par Bauer &amp; Lamb, qui ont conclu au caractère distinct de ces espèces, ce genre a été rétabli.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1895 "1894" : Second report on additions to the lizard collection in the Natural History Museum. Proceedings of the Zoological Society of London, vol. 1894, p. 722-736 (texte intégral).</t>
         </is>
